--- a/SATIM/Ans_WrkTI/co2tax100.xlsx
+++ b/SATIM/Ans_WrkTI/co2tax100.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\models\satimge\satim\ans_wrkti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46576BDF-A45C-47DB-9DD6-8ECC7994D25C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B80B1398-9797-4ECA-8E4A-4E92E05D7D1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="8" xr2:uid="{2CA6F979-881F-4078-A46F-36D463F0B26E}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="8" xr2:uid="{D7B19D76-113D-4D2D-A32B-FFD94D5F20AE}"/>
   </bookViews>
   <sheets>
     <sheet name="RegionInfo" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="20">
   <si>
     <t>REGIONS</t>
   </si>
@@ -76,19 +76,25 @@
     <t>TID DATA</t>
   </si>
   <si>
+    <t>COM_BNDNET</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>CO2EQS</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>COM_CSTNET</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>CO2EQS</t>
-  </si>
-  <si>
-    <t>ANNUAL</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>TS TRADE</t>
@@ -445,7 +451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0940505-66B7-4E6A-BE15-56FAA11B6975}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884F4ED8-2B8D-4D20-ABBA-F05D5E2201CE}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -493,7 +499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B60E87E-AEC8-4F42-B721-CFCB25B4EDF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9992DD14-49CA-41A1-BFAA-D5F5B1337C86}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -518,7 +524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6A7EFE-7E5C-43E6-A5E2-ECA597F91365}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C9CD3A-980B-4FE6-ADFF-A3FC24656ECF}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -543,7 +549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F52D42-B27F-4B03-A1D0-2E52EF2860DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDFDC2B-71B7-48BC-937F-65B0C3034D56}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -567,7 +573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1A3F89-1DD3-41AB-917E-B30191C46B5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE60AB04-5CB8-4735-86D0-A405F1AE0EB8}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -592,26 +598,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB9A71D-DFB8-4609-8945-70354361BA29}">
-  <dimension ref="A1:AP2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB65410-8B0E-439E-97DF-1C576A702A7D}">
+  <dimension ref="A1:AP3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="1.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="42" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="27" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="42" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -642,109 +646,234 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2">
+        <v>10000</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2">
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3">
         <v>0.1</v>
       </c>
-      <c r="S2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>15</v>
+      <c r="S3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE07C8D-4ECE-4956-8EEF-107E615D06B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87F20B1-9B22-417A-B224-F5D99C0D8CFB}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -777,7 +906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E24ED3-E973-4881-9393-6803B0DC1B15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BD7A38-E34D-4A7A-87A3-479413886EB6}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -789,7 +918,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -801,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66FA891-92D2-4BE9-8439-62672B04E5F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76107D4-4754-4376-92BA-25D87D9FF978}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -814,7 +943,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
